--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H2">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I2">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J2">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N2">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q2">
-        <v>11.21188588330013</v>
+        <v>15.833140264714</v>
       </c>
       <c r="R2">
-        <v>11.21188588330013</v>
+        <v>142.498262382426</v>
       </c>
       <c r="S2">
-        <v>0.01936155007241577</v>
+        <v>0.02479649385654201</v>
       </c>
       <c r="T2">
-        <v>0.01936155007241577</v>
+        <v>0.02479649385654201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H3">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I3">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J3">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q3">
-        <v>38.73138931014012</v>
+        <v>42.60177548750534</v>
       </c>
       <c r="R3">
-        <v>38.73138931014012</v>
+        <v>383.415979387548</v>
       </c>
       <c r="S3">
-        <v>0.06688435302569989</v>
+        <v>0.06671921340253406</v>
       </c>
       <c r="T3">
-        <v>0.06688435302569989</v>
+        <v>0.06671921340253406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H4">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I4">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J4">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N4">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q4">
-        <v>6.63245799081804</v>
+        <v>7.841637880773666</v>
       </c>
       <c r="R4">
-        <v>6.63245799081804</v>
+        <v>70.574740926963</v>
       </c>
       <c r="S4">
-        <v>0.01145344046746753</v>
+        <v>0.01228089452154826</v>
       </c>
       <c r="T4">
-        <v>0.01145344046746753</v>
+        <v>0.01228089452154826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H5">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I5">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J5">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N5">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q5">
-        <v>26.02754277054857</v>
+        <v>28.70799582012767</v>
       </c>
       <c r="R5">
-        <v>26.02754277054857</v>
+        <v>258.371962381149</v>
       </c>
       <c r="S5">
-        <v>0.04494637011642422</v>
+        <v>0.04495997825358038</v>
       </c>
       <c r="T5">
-        <v>0.04494637011642422</v>
+        <v>0.04495997825358038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H6">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I6">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J6">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N6">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q6">
-        <v>36.93179489582165</v>
+        <v>48.09871489049866</v>
       </c>
       <c r="R6">
-        <v>36.93179489582165</v>
+        <v>432.888434014488</v>
       </c>
       <c r="S6">
-        <v>0.06377667446693358</v>
+        <v>0.07532804411187091</v>
       </c>
       <c r="T6">
-        <v>0.06377667446693358</v>
+        <v>0.07532804411187093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H7">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I7">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J7">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q7">
-        <v>127.5806533281698</v>
+        <v>129.4178298646916</v>
       </c>
       <c r="R7">
-        <v>127.5806533281698</v>
+        <v>1164.760468782224</v>
       </c>
       <c r="S7">
-        <v>0.2203161210697059</v>
+        <v>0.2026830034670188</v>
       </c>
       <c r="T7">
-        <v>0.2203161210697059</v>
+        <v>0.2026830034670188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H8">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I8">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J8">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N8">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q8">
-        <v>21.84722362692713</v>
+        <v>23.82172445869378</v>
       </c>
       <c r="R8">
-        <v>21.84722362692713</v>
+        <v>214.395520128244</v>
       </c>
       <c r="S8">
-        <v>0.03772747230919096</v>
+        <v>0.03730752297500136</v>
       </c>
       <c r="T8">
-        <v>0.03772747230919096</v>
+        <v>0.03730752297500137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H9">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I9">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J9">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N9">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O9">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P9">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q9">
-        <v>85.73436094955969</v>
+        <v>87.21060275751243</v>
       </c>
       <c r="R9">
-        <v>85.73436094955969</v>
+        <v>784.895424817612</v>
       </c>
       <c r="S9">
-        <v>0.1480527129627612</v>
+        <v>0.1365816975879008</v>
       </c>
       <c r="T9">
-        <v>0.1480527129627612</v>
+        <v>0.1365816975879008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H10">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I10">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J10">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N10">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O10">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P10">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q10">
-        <v>30.45584803878712</v>
+        <v>3.112727743762</v>
       </c>
       <c r="R10">
-        <v>30.45584803878712</v>
+        <v>28.014549693858</v>
       </c>
       <c r="S10">
-        <v>0.0525935095075457</v>
+        <v>0.004874884772371876</v>
       </c>
       <c r="T10">
-        <v>0.0525935095075457</v>
+        <v>0.004874884772371877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H11">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I11">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J11">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P11">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q11">
-        <v>105.2095356159232</v>
+        <v>8.375327084609333</v>
       </c>
       <c r="R11">
-        <v>105.2095356159232</v>
+        <v>75.377943761484</v>
       </c>
       <c r="S11">
-        <v>0.1816839480106917</v>
+        <v>0.01311671235951099</v>
       </c>
       <c r="T11">
-        <v>0.1816839480106917</v>
+        <v>0.01311671235951099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H12">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I12">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J12">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N12">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O12">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P12">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q12">
-        <v>18.01633862442929</v>
+        <v>1.541632511297667</v>
       </c>
       <c r="R12">
-        <v>18.01633862442929</v>
+        <v>13.874692601679</v>
       </c>
       <c r="S12">
-        <v>0.03111200435227873</v>
+        <v>0.002414371404302627</v>
       </c>
       <c r="T12">
-        <v>0.03111200435227873</v>
+        <v>0.002414371404302628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.288379</v>
+      </c>
+      <c r="H13">
+        <v>0.865137</v>
+      </c>
+      <c r="I13">
+        <v>0.02924490821138983</v>
+      </c>
+      <c r="J13">
+        <v>0.02924490821138983</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.57101366666667</v>
+      </c>
+      <c r="N13">
+        <v>58.713041</v>
+      </c>
+      <c r="O13">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="P13">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="Q13">
+        <v>5.643869350179666</v>
+      </c>
+      <c r="R13">
+        <v>50.794824151617</v>
+      </c>
+      <c r="S13">
+        <v>0.008838939675204334</v>
+      </c>
+      <c r="T13">
+        <v>0.008838939675204336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.649475</v>
+      </c>
+      <c r="H14">
+        <v>10.948425</v>
+      </c>
+      <c r="I14">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J14">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.793878</v>
+      </c>
+      <c r="N14">
+        <v>32.381634</v>
+      </c>
+      <c r="O14">
+        <v>0.166691744666625</v>
+      </c>
+      <c r="P14">
+        <v>0.166691744666625</v>
+      </c>
+      <c r="Q14">
+        <v>39.39198791405</v>
+      </c>
+      <c r="R14">
+        <v>354.52789122645</v>
+      </c>
+      <c r="S14">
+        <v>0.06169232192584014</v>
+      </c>
+      <c r="T14">
+        <v>0.06169232192584015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.649475</v>
+      </c>
+      <c r="H15">
+        <v>10.948425</v>
+      </c>
+      <c r="I15">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J15">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.04277733333333</v>
+      </c>
+      <c r="N15">
+        <v>87.128332</v>
+      </c>
+      <c r="O15">
+        <v>0.4485126868821051</v>
+      </c>
+      <c r="P15">
+        <v>0.4485126868821051</v>
+      </c>
+      <c r="Q15">
+        <v>105.9908898085667</v>
+      </c>
+      <c r="R15">
+        <v>953.9180082771001</v>
+      </c>
+      <c r="S15">
+        <v>0.1659937576530412</v>
+      </c>
+      <c r="T15">
+        <v>0.1659937576530412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.62617767073784</v>
-      </c>
-      <c r="H13">
-        <v>3.62617767073784</v>
-      </c>
-      <c r="I13">
-        <v>0.387481305509401</v>
-      </c>
-      <c r="J13">
-        <v>0.387481305509401</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.4973737845792</v>
-      </c>
-      <c r="N13">
-        <v>19.4973737845792</v>
-      </c>
-      <c r="O13">
-        <v>0.3150909267180702</v>
-      </c>
-      <c r="P13">
-        <v>0.3150909267180702</v>
-      </c>
-      <c r="Q13">
-        <v>70.70094145567043</v>
-      </c>
-      <c r="R13">
-        <v>70.70094145567043</v>
-      </c>
-      <c r="S13">
-        <v>0.1220918436388848</v>
-      </c>
-      <c r="T13">
-        <v>0.1220918436388848</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.649475</v>
+      </c>
+      <c r="H16">
+        <v>10.948425</v>
+      </c>
+      <c r="I16">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J16">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345855666666666</v>
+      </c>
+      <c r="N16">
+        <v>16.037567</v>
+      </c>
+      <c r="O16">
+        <v>0.08255698348755007</v>
+      </c>
+      <c r="P16">
+        <v>0.08255698348755008</v>
+      </c>
+      <c r="Q16">
+        <v>19.50956660910833</v>
+      </c>
+      <c r="R16">
+        <v>175.586099481975</v>
+      </c>
+      <c r="S16">
+        <v>0.03055419458669782</v>
+      </c>
+      <c r="T16">
+        <v>0.03055419458669783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.649475</v>
+      </c>
+      <c r="H17">
+        <v>10.948425</v>
+      </c>
+      <c r="I17">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J17">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.57101366666667</v>
+      </c>
+      <c r="N17">
+        <v>58.713041</v>
+      </c>
+      <c r="O17">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="P17">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="Q17">
+        <v>71.42392510115833</v>
+      </c>
+      <c r="R17">
+        <v>642.815325910425</v>
+      </c>
+      <c r="S17">
+        <v>0.1118579694470344</v>
+      </c>
+      <c r="T17">
+        <v>0.1118579694470344</v>
       </c>
     </row>
   </sheetData>
